--- a/PartyMemberManager/ExcelTemplates/入党积极分子培训成绩模板.xlsx
+++ b/PartyMemberManager/ExcelTemplates/入党积极分子培训成绩模板.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\我的文件\PartyMemberManager\PartyMemberManager\ExcelTemplates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{895FF001-BB43-4EEA-BAEE-02FCF2BE33E3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2CF9F8F-06B5-4C05-9E7F-F0F111683918}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13425" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>序号</t>
   </si>
@@ -48,6 +48,10 @@
   </si>
   <si>
     <t>1074100123</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>实践成绩</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -454,23 +458,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="4.73046875" customWidth="1"/>
     <col min="2" max="2" width="17.796875" customWidth="1"/>
-    <col min="3" max="4" width="9.59765625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.265625" customWidth="1"/>
+    <col min="3" max="5" width="9.59765625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="9" customWidth="1"/>
     <col min="8" max="8" width="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="1" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" s="1" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -480,11 +483,14 @@
       <c r="C1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:4" s="1" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" s="1" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -497,8 +503,11 @@
       <c r="D2" s="2">
         <v>90</v>
       </c>
+      <c r="E2" s="2">
+        <v>90</v>
+      </c>
     </row>
-    <row r="3" spans="1:4" s="1" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" s="1" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
         <v>2</v>
       </c>
@@ -511,8 +520,11 @@
       <c r="D3" s="2">
         <v>98</v>
       </c>
+      <c r="E3" s="2">
+        <v>98</v>
+      </c>
     </row>
-    <row r="4" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
         <v>3</v>
       </c>
@@ -523,6 +535,9 @@
         <v>90</v>
       </c>
       <c r="D4" s="2">
+        <v>98</v>
+      </c>
+      <c r="E4" s="2">
         <v>98</v>
       </c>
     </row>
